--- a/Test Data/Verify_24V_Alarm_Load_On_Addition_Deletion_Of_Ethernet_Connection.xlsx
+++ b/Test Data/Verify_24V_Alarm_Load_On_Addition_Deletion_Of_Ethernet_Connection.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7116D609-43FD-4C1F-803D-DFF344834C6F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
@@ -100,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -485,7 +484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -597,11 +596,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB43F452-D538-4F56-A818-73FAE8C31B57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,5 +685,6 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>